--- a/NOI/I/Testers/results_D.txt.xlsx
+++ b/NOI/I/Testers/results_D.txt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>person</t>
   </si>
@@ -46,6 +46,18 @@
     <t>10 (total)</t>
   </si>
   <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>90 (circles)</t>
+  </si>
+  <si>
+    <t>30 (number)</t>
+  </si>
+  <si>
+    <t>120 (total)</t>
+  </si>
+  <si>
     <t>ALH</t>
   </si>
   <si>
@@ -55,21 +67,45 @@
     <t>0 (total)</t>
   </si>
   <si>
+    <t>AMG</t>
+  </si>
+  <si>
+    <t>ANZ</t>
+  </si>
+  <si>
+    <t>30 (circles)</t>
+  </si>
+  <si>
+    <t>4 (klas)</t>
+  </si>
+  <si>
+    <t>100 (number)</t>
+  </si>
+  <si>
+    <t>134 (total)</t>
+  </si>
+  <si>
     <t>AVI</t>
   </si>
   <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>100 (circles)</t>
+  </si>
+  <si>
+    <t>100 (klas)</t>
+  </si>
+  <si>
+    <t>50 (number)</t>
+  </si>
+  <si>
+    <t>250 (total)</t>
+  </si>
+  <si>
     <t>BKK</t>
   </si>
   <si>
-    <t>100 (circles)</t>
-  </si>
-  <si>
-    <t>100 (klas)</t>
-  </si>
-  <si>
-    <t>100 (number)</t>
-  </si>
-  <si>
     <t>300 (total)</t>
   </si>
   <si>
@@ -79,45 +115,60 @@
     <t>BSP</t>
   </si>
   <si>
+    <t>DNR</t>
+  </si>
+  <si>
+    <t>150 (total)</t>
+  </si>
+  <si>
     <t>DRP</t>
   </si>
   <si>
-    <t>90 (circles)</t>
-  </si>
-  <si>
     <t>190 (total)</t>
   </si>
   <si>
     <t>DRT</t>
   </si>
   <si>
-    <t>4 (klas)</t>
-  </si>
-  <si>
     <t>4 (total)</t>
   </si>
   <si>
     <t>EIS</t>
   </si>
   <si>
-    <t>50 (number)</t>
-  </si>
-  <si>
     <t>154 (total)</t>
   </si>
   <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>50 (circles)</t>
+  </si>
+  <si>
+    <t>104 (total)</t>
+  </si>
+  <si>
+    <t>HRK</t>
+  </si>
+  <si>
+    <t>30 (total)</t>
+  </si>
+  <si>
+    <t>IBN</t>
+  </si>
+  <si>
     <t>ISK</t>
   </si>
   <si>
+    <t>ISP</t>
+  </si>
+  <si>
     <t>JMS</t>
   </si>
   <si>
     <t>KBA</t>
   </si>
   <si>
-    <t>250 (total)</t>
-  </si>
-  <si>
     <t>KIG</t>
   </si>
   <si>
@@ -136,9 +187,6 @@
     <t>LDD</t>
   </si>
   <si>
-    <t>30 (number)</t>
-  </si>
-  <si>
     <t>34 (total)</t>
   </si>
   <si>
@@ -154,6 +202,12 @@
     <t>20 (number)</t>
   </si>
   <si>
+    <t>MGG</t>
+  </si>
+  <si>
+    <t>70 (circles)</t>
+  </si>
+  <si>
     <t>MJK</t>
   </si>
   <si>
@@ -163,10 +217,16 @@
     <t>MVB</t>
   </si>
   <si>
+    <t>MVK1</t>
+  </si>
+  <si>
+    <t>14 (total)</t>
+  </si>
+  <si>
     <t>MVY</t>
   </si>
   <si>
-    <t>30 (total)</t>
+    <t>NCC</t>
   </si>
   <si>
     <t>NDG</t>
@@ -184,6 +244,9 @@
     <t>NNN</t>
   </si>
   <si>
+    <t>NTB</t>
+  </si>
+  <si>
     <t>NVB</t>
   </si>
   <si>
@@ -202,6 +265,12 @@
     <t>108 (total)</t>
   </si>
   <si>
+    <t>PSZ</t>
+  </si>
+  <si>
+    <t>130 (total)</t>
+  </si>
+  <si>
     <t>SAI</t>
   </si>
   <si>
@@ -211,13 +280,43 @@
     <t>SVP</t>
   </si>
   <si>
+    <t>SYD</t>
+  </si>
+  <si>
+    <t>TGM</t>
+  </si>
+  <si>
+    <t>60 (klas)</t>
+  </si>
+  <si>
     <t>TGT</t>
   </si>
   <si>
     <t>TKV</t>
   </si>
   <si>
+    <t>TMD</t>
+  </si>
+  <si>
+    <t>200 (total)</t>
+  </si>
+  <si>
+    <t>TNM</t>
+  </si>
+  <si>
+    <t>VBM</t>
+  </si>
+  <si>
+    <t>VIG</t>
+  </si>
+  <si>
     <t>VMI</t>
+  </si>
+  <si>
+    <t>VOG</t>
+  </si>
+  <si>
+    <t>140 (total)</t>
   </si>
   <si>
     <t>VYI</t>
@@ -572,7 +671,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,18 +724,18 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -645,49 +744,49 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -696,66 +795,66 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -764,228 +863,228 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
         <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
         <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -993,41 +1092,41 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1036,83 +1135,83 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1121,125 +1220,482 @@
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" t="s">
         <v>9</v>
       </c>
     </row>
